--- a/NewSpreadsheet.xlsx
+++ b/NewSpreadsheet.xlsx
@@ -343,7 +343,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -368,6 +368,699 @@
         </is>
       </c>
     </row>
+    <row outlineLevel="0" r="2">
+      <c r="A2" s="0">
+        <v>-10</v>
+      </c>
+      <c r="B2" s="0">
+        <v>-10</v>
+      </c>
+      <c r="C2" s="0">
+        <v>100</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3">
+      <c r="A3" s="0">
+        <v>-9</v>
+      </c>
+      <c r="B3" s="0">
+        <v>-9</v>
+      </c>
+      <c r="C3" s="0">
+        <v>81</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4">
+      <c r="A4" s="0">
+        <v>-8</v>
+      </c>
+      <c r="B4" s="0">
+        <v>-8</v>
+      </c>
+      <c r="C4" s="0">
+        <v>64</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="5">
+      <c r="A5" s="0">
+        <v>-7</v>
+      </c>
+      <c r="B5" s="0">
+        <v>-7</v>
+      </c>
+      <c r="C5" s="0">
+        <v>49</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="6">
+      <c r="A6" s="0">
+        <v>-6</v>
+      </c>
+      <c r="B6" s="0">
+        <v>-6</v>
+      </c>
+      <c r="C6" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="7">
+      <c r="A7" s="0">
+        <v>-5</v>
+      </c>
+      <c r="B7" s="0">
+        <v>-5</v>
+      </c>
+      <c r="C7" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="8">
+      <c r="A8" s="0">
+        <v>-4</v>
+      </c>
+      <c r="B8" s="0">
+        <v>-4</v>
+      </c>
+      <c r="C8" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="9">
+      <c r="A9" s="0">
+        <v>-3</v>
+      </c>
+      <c r="B9" s="0">
+        <v>-3</v>
+      </c>
+      <c r="C9" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="10">
+      <c r="A10" s="0">
+        <v>-2</v>
+      </c>
+      <c r="B10" s="0">
+        <v>-2</v>
+      </c>
+      <c r="C10" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="11">
+      <c r="A11" s="0">
+        <v>-1</v>
+      </c>
+      <c r="B11" s="0">
+        <v>-1</v>
+      </c>
+      <c r="C11" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="12">
+      <c r="A12" s="0">
+        <v>0</v>
+      </c>
+      <c r="B12" s="0">
+        <v>0</v>
+      </c>
+      <c r="C12" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="13">
+      <c r="A13" s="0">
+        <v>1</v>
+      </c>
+      <c r="B13" s="0">
+        <v>1</v>
+      </c>
+      <c r="C13" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="14">
+      <c r="A14" s="0">
+        <v>2</v>
+      </c>
+      <c r="B14" s="0">
+        <v>2</v>
+      </c>
+      <c r="C14" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="15">
+      <c r="A15" s="0">
+        <v>3</v>
+      </c>
+      <c r="B15" s="0">
+        <v>3</v>
+      </c>
+      <c r="C15" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="16">
+      <c r="A16" s="0">
+        <v>4</v>
+      </c>
+      <c r="B16" s="0">
+        <v>4</v>
+      </c>
+      <c r="C16" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="17">
+      <c r="A17" s="0">
+        <v>5</v>
+      </c>
+      <c r="B17" s="0">
+        <v>5</v>
+      </c>
+      <c r="C17" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="18">
+      <c r="A18" s="0">
+        <v>6</v>
+      </c>
+      <c r="B18" s="0">
+        <v>6</v>
+      </c>
+      <c r="C18" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="19">
+      <c r="A19" s="0">
+        <v>7</v>
+      </c>
+      <c r="B19" s="0">
+        <v>7</v>
+      </c>
+      <c r="C19" s="0">
+        <v>49</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="20">
+      <c r="A20" s="0">
+        <v>8</v>
+      </c>
+      <c r="B20" s="0">
+        <v>8</v>
+      </c>
+      <c r="C20" s="0">
+        <v>64</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="21">
+      <c r="A21" s="0">
+        <v>9</v>
+      </c>
+      <c r="B21" s="0">
+        <v>9</v>
+      </c>
+      <c r="C21" s="0">
+        <v>81</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="22">
+      <c r="A22" s="0">
+        <v>10</v>
+      </c>
+      <c r="B22" s="0">
+        <v>10</v>
+      </c>
+      <c r="C22" s="0">
+        <v>100</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="23">
+      <c r="A23" s="0">
+        <v>-10</v>
+      </c>
+      <c r="B23" s="0">
+        <v>-10</v>
+      </c>
+      <c r="C23" s="0">
+        <v>100</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="24">
+      <c r="A24" s="0">
+        <v>-9</v>
+      </c>
+      <c r="B24" s="0">
+        <v>-9</v>
+      </c>
+      <c r="C24" s="0">
+        <v>81</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="25">
+      <c r="A25" s="0">
+        <v>-8</v>
+      </c>
+      <c r="B25" s="0">
+        <v>-8</v>
+      </c>
+      <c r="C25" s="0">
+        <v>64</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="26">
+      <c r="A26" s="0">
+        <v>-7</v>
+      </c>
+      <c r="B26" s="0">
+        <v>-7</v>
+      </c>
+      <c r="C26" s="0">
+        <v>49</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="27">
+      <c r="A27" s="0">
+        <v>-6</v>
+      </c>
+      <c r="B27" s="0">
+        <v>-6</v>
+      </c>
+      <c r="C27" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="28">
+      <c r="A28" s="0">
+        <v>-5</v>
+      </c>
+      <c r="B28" s="0">
+        <v>-5</v>
+      </c>
+      <c r="C28" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="29">
+      <c r="A29" s="0">
+        <v>-4</v>
+      </c>
+      <c r="B29" s="0">
+        <v>-4</v>
+      </c>
+      <c r="C29" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="30">
+      <c r="A30" s="0">
+        <v>-3</v>
+      </c>
+      <c r="B30" s="0">
+        <v>-3</v>
+      </c>
+      <c r="C30" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="31">
+      <c r="A31" s="0">
+        <v>-2</v>
+      </c>
+      <c r="B31" s="0">
+        <v>-2</v>
+      </c>
+      <c r="C31" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="32">
+      <c r="A32" s="0">
+        <v>-1</v>
+      </c>
+      <c r="B32" s="0">
+        <v>-1</v>
+      </c>
+      <c r="C32" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="33">
+      <c r="A33" s="0">
+        <v>0</v>
+      </c>
+      <c r="B33" s="0">
+        <v>0</v>
+      </c>
+      <c r="C33" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="34">
+      <c r="A34" s="0">
+        <v>1</v>
+      </c>
+      <c r="B34" s="0">
+        <v>1</v>
+      </c>
+      <c r="C34" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="35">
+      <c r="A35" s="0">
+        <v>2</v>
+      </c>
+      <c r="B35" s="0">
+        <v>2</v>
+      </c>
+      <c r="C35" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="36">
+      <c r="A36" s="0">
+        <v>3</v>
+      </c>
+      <c r="B36" s="0">
+        <v>3</v>
+      </c>
+      <c r="C36" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="37">
+      <c r="A37" s="0">
+        <v>4</v>
+      </c>
+      <c r="B37" s="0">
+        <v>4</v>
+      </c>
+      <c r="C37" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="38">
+      <c r="A38" s="0">
+        <v>5</v>
+      </c>
+      <c r="B38" s="0">
+        <v>5</v>
+      </c>
+      <c r="C38" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="39">
+      <c r="A39" s="0">
+        <v>6</v>
+      </c>
+      <c r="B39" s="0">
+        <v>6</v>
+      </c>
+      <c r="C39" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="40">
+      <c r="A40" s="0">
+        <v>7</v>
+      </c>
+      <c r="B40" s="0">
+        <v>7</v>
+      </c>
+      <c r="C40" s="0">
+        <v>49</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="41">
+      <c r="A41" s="0">
+        <v>8</v>
+      </c>
+      <c r="B41" s="0">
+        <v>8</v>
+      </c>
+      <c r="C41" s="0">
+        <v>64</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="42">
+      <c r="A42" s="0">
+        <v>9</v>
+      </c>
+      <c r="B42" s="0">
+        <v>9</v>
+      </c>
+      <c r="C42" s="0">
+        <v>81</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="43">
+      <c r="A43" s="0">
+        <v>10</v>
+      </c>
+      <c r="B43" s="0">
+        <v>10</v>
+      </c>
+      <c r="C43" s="0">
+        <v>100</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="44">
+      <c r="A44" s="0">
+        <v>-10</v>
+      </c>
+      <c r="B44" s="0">
+        <v>-10</v>
+      </c>
+      <c r="C44" s="0">
+        <v>100</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="45">
+      <c r="A45" s="0">
+        <v>-9</v>
+      </c>
+      <c r="B45" s="0">
+        <v>-9</v>
+      </c>
+      <c r="C45" s="0">
+        <v>81</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="46">
+      <c r="A46" s="0">
+        <v>-8</v>
+      </c>
+      <c r="B46" s="0">
+        <v>-8</v>
+      </c>
+      <c r="C46" s="0">
+        <v>64</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="47">
+      <c r="A47" s="0">
+        <v>-7</v>
+      </c>
+      <c r="B47" s="0">
+        <v>-7</v>
+      </c>
+      <c r="C47" s="0">
+        <v>49</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="48">
+      <c r="A48" s="0">
+        <v>-6</v>
+      </c>
+      <c r="B48" s="0">
+        <v>-6</v>
+      </c>
+      <c r="C48" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="49">
+      <c r="A49" s="0">
+        <v>-5</v>
+      </c>
+      <c r="B49" s="0">
+        <v>-5</v>
+      </c>
+      <c r="C49" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="50">
+      <c r="A50" s="0">
+        <v>-4</v>
+      </c>
+      <c r="B50" s="0">
+        <v>-4</v>
+      </c>
+      <c r="C50" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="51">
+      <c r="A51" s="0">
+        <v>-3</v>
+      </c>
+      <c r="B51" s="0">
+        <v>-3</v>
+      </c>
+      <c r="C51" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="52">
+      <c r="A52" s="0">
+        <v>-2</v>
+      </c>
+      <c r="B52" s="0">
+        <v>-2</v>
+      </c>
+      <c r="C52" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="53">
+      <c r="A53" s="0">
+        <v>-1</v>
+      </c>
+      <c r="B53" s="0">
+        <v>-1</v>
+      </c>
+      <c r="C53" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="54">
+      <c r="A54" s="0">
+        <v>0</v>
+      </c>
+      <c r="B54" s="0">
+        <v>0</v>
+      </c>
+      <c r="C54" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="55">
+      <c r="A55" s="0">
+        <v>1</v>
+      </c>
+      <c r="B55" s="0">
+        <v>1</v>
+      </c>
+      <c r="C55" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="56">
+      <c r="A56" s="0">
+        <v>2</v>
+      </c>
+      <c r="B56" s="0">
+        <v>2</v>
+      </c>
+      <c r="C56" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="57">
+      <c r="A57" s="0">
+        <v>3</v>
+      </c>
+      <c r="B57" s="0">
+        <v>3</v>
+      </c>
+      <c r="C57" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="58">
+      <c r="A58" s="0">
+        <v>4</v>
+      </c>
+      <c r="B58" s="0">
+        <v>4</v>
+      </c>
+      <c r="C58" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="59">
+      <c r="A59" s="0">
+        <v>5</v>
+      </c>
+      <c r="B59" s="0">
+        <v>5</v>
+      </c>
+      <c r="C59" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="60">
+      <c r="A60" s="0">
+        <v>6</v>
+      </c>
+      <c r="B60" s="0">
+        <v>6</v>
+      </c>
+      <c r="C60" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="61">
+      <c r="A61" s="0">
+        <v>7</v>
+      </c>
+      <c r="B61" s="0">
+        <v>7</v>
+      </c>
+      <c r="C61" s="0">
+        <v>49</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="62">
+      <c r="A62" s="0">
+        <v>8</v>
+      </c>
+      <c r="B62" s="0">
+        <v>8</v>
+      </c>
+      <c r="C62" s="0">
+        <v>64</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="63">
+      <c r="A63" s="0">
+        <v>9</v>
+      </c>
+      <c r="B63" s="0">
+        <v>9</v>
+      </c>
+      <c r="C63" s="0">
+        <v>81</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="64">
+      <c r="A64" s="0">
+        <v>10</v>
+      </c>
+      <c r="B64" s="0">
+        <v>10</v>
+      </c>
+      <c r="C64" s="0">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
